--- a/発注管理/data/b40-u70-d20240725-.xlsx
+++ b/発注管理/data/b40-u70-d20240725-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfh077_user.MEFUREDMN\Desktop\excel-order-manage\発注管理\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE787D23-15D0-4D44-8BE5-15E90F745441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2EFD75-9238-45D6-B6F5-8E7F48D023F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{49994791-F9F0-4A9E-932F-D30F3F9F8804}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12420" windowHeight="6825" xr2:uid="{02422508-83AA-4C72-9EE5-B056A9587AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842826F9-2E89-40B8-BE37-44C147B93FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05CEA42-1DAF-4E5C-AC4B-3997DEE0296F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
